--- a/public/excel/import/clients.xlsx
+++ b/public/excel/import/clients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Наименование</t>
   </si>
@@ -33,22 +33,10 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>clien1</t>
-  </si>
-  <si>
-    <t>piter</t>
-  </si>
-  <si>
-    <t>clien2</t>
-  </si>
-  <si>
-    <t>clien3</t>
-  </si>
-  <si>
-    <t>clien4</t>
-  </si>
-  <si>
-    <t>clien5</t>
+    <t>new clientttt</t>
+  </si>
+  <si>
+    <t>moskow</t>
   </si>
 </sst>
 </file>
@@ -385,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,68 +405,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>44812</v>
+        <v>43893</v>
       </c>
       <c r="C2" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44812</v>
-      </c>
-      <c r="C3" s="1">
-        <v>500</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44812</v>
-      </c>
-      <c r="C4" s="1">
-        <v>500</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44812</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44812</v>
-      </c>
-      <c r="C6" s="1">
-        <v>500</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
